--- a/DEV/org.openl.rules/test/rules/calc1/TestingSpreadsheet.xlsx
+++ b/DEV/org.openl.rules/test/rules/calc1/TestingSpreadsheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Spreadsheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Step</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>_res_.$Text$Coverage_Id</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>_res_.$Formula$Covered_Property</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,9 +441,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -475,7 +481,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -547,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +810,9 @@
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -866,10 +874,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F30"/>
+  <dimension ref="B5:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,10 +885,10 @@
     <col min="2" max="2" width="17.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>26</v>
       </c>
@@ -889,7 +897,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
@@ -900,13 +908,16 @@
         <v>23</v>
       </c>
       <c r="E6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
         <v>20</v>
       </c>
@@ -920,8 +931,11 @@
       <c r="F7" s="32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>21</v>
       </c>
@@ -931,14 +945,17 @@
       <c r="D8" s="34">
         <v>1.23</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="35">
+        <v>5</v>
+      </c>
+      <c r="G8" s="35">
         <v>6.15</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>28</v>
       </c>
@@ -946,7 +963,7 @@
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -960,7 +977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -972,7 +989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
